--- a/output/DSCP602_output.xlsx
+++ b/output/DSCP602_output.xlsx
@@ -69,6 +69,15 @@
     <t>&lt;----Type Your Name</t>
   </si>
   <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>DSPC602</t>
+  </si>
+  <si>
+    <t>Max marks</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -84,16 +93,16 @@
     <t>Total Absent</t>
   </si>
   <si>
-    <t>Average Marks &amp; %</t>
-  </si>
-  <si>
-    <t>Less Than 15</t>
-  </si>
-  <si>
-    <t>Between 15-30</t>
-  </si>
-  <si>
-    <t>More than 30</t>
+    <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Less Than 40%</t>
+  </si>
+  <si>
+    <t>Between 40 % - 75 %</t>
+  </si>
+  <si>
+    <t>More than 75%</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -165,34 +174,25 @@
     <t>HITESH KUMAR K A</t>
   </si>
   <si>
+    <t xml:space="preserve">ASHIK JENLY V L </t>
+  </si>
+  <si>
+    <t>KALAIVANI S</t>
+  </si>
+  <si>
+    <t>NAWIN B</t>
+  </si>
+  <si>
+    <t>SIVAA GANESH S</t>
+  </si>
+  <si>
     <t>SUBHASHINI S</t>
   </si>
   <si>
+    <t>AJAY S</t>
+  </si>
+  <si>
     <t>BRIJESH A</t>
-  </si>
-  <si>
-    <t>AJAY S</t>
-  </si>
-  <si>
-    <t>SIVAA GANESH S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASHIK JENLY V L </t>
-  </si>
-  <si>
-    <t>NAWIN B</t>
-  </si>
-  <si>
-    <t>KALAIVANI S</t>
-  </si>
-  <si>
-    <t>DEEPAKRAGAVAN J</t>
-  </si>
-  <si>
-    <t>PREETHIGA S</t>
-  </si>
-  <si>
-    <t>KRISHNAKUMAR S</t>
   </si>
 </sst>
 </file>
@@ -681,17 +681,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+    </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>51</v>
@@ -699,7 +717,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -707,7 +725,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -715,15 +733,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>19.88235294117647</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -731,7 +749,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>33</v>
@@ -739,7 +757,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -763,16 +781,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -783,7 +801,7 @@
         <v>2136110032</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -797,7 +815,7 @@
         <v>2136110006</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -811,7 +829,7 @@
         <v>2136110044</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -825,7 +843,7 @@
         <v>2136110046</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -839,7 +857,7 @@
         <v>2136110049</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -853,7 +871,7 @@
         <v>2136110005</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -867,7 +885,7 @@
         <v>2136110033</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>11</v>
@@ -881,7 +899,7 @@
         <v>2136110028</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -895,7 +913,7 @@
         <v>2136110029</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -909,7 +927,7 @@
         <v>2236150002</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -923,7 +941,7 @@
         <v>2136110024</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -937,7 +955,7 @@
         <v>2136110035</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -950,7 +968,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -958,16 +976,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -978,7 +996,7 @@
         <v>2136110008</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -992,7 +1010,7 @@
         <v>2136110001</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -1006,7 +1024,7 @@
         <v>2136110020</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -1020,7 +1038,7 @@
         <v>2136110007</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -1034,7 +1052,7 @@
         <v>2136110013</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>29</v>
@@ -1048,7 +1066,7 @@
         <v>2136110022</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>28</v>
@@ -1062,7 +1080,7 @@
         <v>2136110031</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>27</v>
@@ -1070,13 +1088,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>2136110021</v>
+        <v>2136110003</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>26</v>
@@ -1084,13 +1102,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2136110030</v>
+        <v>2136110009</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -1098,13 +1116,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>2136110026</v>
+        <v>2136110014</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>26</v>
@@ -1118,7 +1136,7 @@
         <v>2136110019</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>26</v>
@@ -1126,13 +1144,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>2136110003</v>
+        <v>2136110021</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>26</v>
@@ -1140,13 +1158,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>2136110014</v>
+        <v>2136110026</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>26</v>
@@ -1154,58 +1172,16 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>2136110009</v>
+        <v>2136110030</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2136110004</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>2136110040</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>51</v>
-      </c>
-      <c r="B18">
-        <v>2236150003</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/output/DSCP602_output.xlsx
+++ b/output/DSCP602_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Staff Report</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Less Than 40%</t>
   </si>
   <si>
-    <t>Between 40 % - 75 %</t>
+    <t>Between 40% - 75%</t>
   </si>
   <si>
     <t>More than 75%</t>
@@ -153,46 +153,16 @@
     <t>MANUNEETHI S</t>
   </si>
   <si>
+    <t>RAJADURAI P</t>
+  </si>
+  <si>
+    <t>SANJAY S</t>
+  </si>
+  <si>
+    <t>VARSHA V</t>
+  </si>
+  <si>
     <t>JANANIKA B</t>
-  </si>
-  <si>
-    <t>ARAVIND S</t>
-  </si>
-  <si>
-    <t>SRIJA D</t>
-  </si>
-  <si>
-    <t>GURUPRASATH V</t>
-  </si>
-  <si>
-    <t>NAVEENA A</t>
-  </si>
-  <si>
-    <t>SUJI SHRI B</t>
-  </si>
-  <si>
-    <t>HITESH KUMAR K A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASHIK JENLY V L </t>
-  </si>
-  <si>
-    <t>KALAIVANI S</t>
-  </si>
-  <si>
-    <t>NAWIN B</t>
-  </si>
-  <si>
-    <t>SIVAA GANESH S</t>
-  </si>
-  <si>
-    <t>SUBHASHINI S</t>
-  </si>
-  <si>
-    <t>AJAY S</t>
-  </si>
-  <si>
-    <t>BRIJESH A</t>
   </si>
 </sst>
 </file>
@@ -591,7 +561,7 @@
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +586,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -773,7 +743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -961,6 +931,48 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>2136110042</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>2136110043</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>2136110045</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -968,7 +980,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -996,192 +1008,10 @@
         <v>2136110008</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2136110001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>2136110020</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2136110007</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>2136110013</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>2136110022</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>2136110031</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2136110003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2136110009</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2136110014</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>2136110019</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>2136110021</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>2136110026</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>2136110030</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
